--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx; "A 30840-2023")</f>
         <v/>
       </c>
     </row>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx; "A 30841-2023")</f>
         <v/>
       </c>
     </row>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx"; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx; "A 30839-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -635,27 +635,27 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx"; "A 30840-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "A 30840-2023")</f>
         <v/>
       </c>
     </row>
@@ -732,27 +732,27 @@
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx"; "A 30841-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "A 30841-2023")</f>
         <v/>
       </c>
     </row>
@@ -828,23 +828,23 @@
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png"; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx"; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx"; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx"; "A 30839-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "A 30839-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -654,9 +654,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "A 30840-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -751,9 +752,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx")</f>
-        <v/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "A 30841-2023")</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -843,9 +845,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx")</f>
-        <v/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "A 30839-2023")</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,33 +631,32 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx, "A 30840-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx"; "A 30840-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx", "A 30840-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx", "A 30840-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -670,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,33 +728,32 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx, "A 30841-2023"")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx"; "A 30841-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx", "A 30841-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx", "A 30841-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -768,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -826,29 +824,28 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx, "A 30839-2023"")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx"; "A 30839-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx", "A 30839-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx", "A 30839-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -861,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1042,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1099,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1161,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1223,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1285,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1347,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1595,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1652,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1709,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx, "A 30840-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="T2">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx, "A 30841-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="T3">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx, "A 30839-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="T4">

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30840-2023.xlsx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30840-2023.xlsx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30840-2023.png", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30840-2023.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30840-2023.png", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30840-2023.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30840-2023.docx", "A 30840-2023")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30841-2023.xlsx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30841-2023.xlsx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30841-2023.png", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30841-2023.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/knärot/A 30841-2023.png", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30841-2023.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30841-2023.docx", "A 30841-2023")</f>
         <v/>
       </c>
     </row>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/artfynd/A 30839-2023.xlsx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30839-2023.xlsx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/kartor/A 30839-2023.png", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30839-2023.png", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomål/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/klagomålsmail/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsyn/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ANGE/tillsynsmail/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30839-2023.docx", "A 30839-2023")</f>
         <v/>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30840-2023.xlsx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30840-2023 artfynd.xlsx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30840-2023.png", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30840-2023 karta.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30840-2023.png", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30840-2023 karta knärot.png", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30840-2023 fsc-klagomål.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30840-2023 fsc-klagomål mail.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30840-2023 tillsynsbegäran.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30840-2023.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30840-2023 tillsynsbegäran mail.docx", "A 30840-2023")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30841-2023.xlsx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30841-2023 artfynd.xlsx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30841-2023.png", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30841-2023 karta.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30841-2023.png", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/knärot/A 30841-2023 karta knärot.png", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30841-2023 fsc-klagomål.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30841-2023 fsc-klagomål mail.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30841-2023 tillsynsbegäran.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30841-2023.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30841-2023 tillsynsbegäran mail.docx", "A 30841-2023")</f>
         <v/>
       </c>
     </row>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30839-2023.xlsx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/artfynd/A 30839-2023 artfynd.xlsx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30839-2023.png", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/kartor/A 30839-2023 karta.png", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30839-2023 fsc-klagomål.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30839-2023 fsc-klagomål mail.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsyn/A 30839-2023 tillsynsbegäran.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30839-2023.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30839-2023 tillsynsbegäran mail.docx", "A 30839-2023")</f>
         <v/>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -643,11 +643,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30840-2023 fsc-klagomål.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30840-2023 FSC-klagomål.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30840-2023 fsc-klagomål mail.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30840-2023 FSC-klagomål mail.docx", "A 30840-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -655,7 +655,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30840-2023 tillsynsbegäran mail.docx", "A 30840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30840-2023 tillsynsbegäran mail.docx", "A 30840-2023")</f>
         <v/>
       </c>
     </row>
@@ -740,11 +740,11 @@
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30841-2023 fsc-klagomål.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30841-2023 FSC-klagomål.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30841-2023 fsc-klagomål mail.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30841-2023 FSC-klagomål mail.docx", "A 30841-2023")</f>
         <v/>
       </c>
       <c r="X3">
@@ -752,7 +752,7 @@
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30841-2023 tillsynsbegäran mail.docx", "A 30841-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30841-2023 tillsynsbegäran mail.docx", "A 30841-2023")</f>
         <v/>
       </c>
     </row>
@@ -832,11 +832,11 @@
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30839-2023 fsc-klagomål.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomål/A 30839-2023 FSC-klagomål.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30839-2023 fsc-klagomål mail.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/klagomålsmail/A 30839-2023 FSC-klagomål mail.docx", "A 30839-2023")</f>
         <v/>
       </c>
       <c r="X4">
@@ -844,7 +844,7 @@
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/ti,llsynsmail/A 30839-2023 tillsynsbegäran mail.docx", "A 30839-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2260/tillsynsmail/A 30839-2023 tillsynsbegäran mail.docx", "A 30839-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/Översikt ÅNGE.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45112</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45112</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>45111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>45114</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45124</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45124</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>45134</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
